--- a/Code/Results/Cases/Case_3_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_91/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.58997591038974</v>
+        <v>1.372729943998593</v>
       </c>
       <c r="C2">
-        <v>0.4258576543949744</v>
+        <v>0.2344453039142707</v>
       </c>
       <c r="D2">
-        <v>0.06173114348159459</v>
+        <v>0.1496931498150786</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7943756432638054</v>
+        <v>1.747409726797848</v>
       </c>
       <c r="G2">
-        <v>0.0008147612692802576</v>
+        <v>0.002491246750073706</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08862060981007946</v>
+        <v>0.2184199188407483</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2020593016082444</v>
+        <v>0.3277370905224615</v>
       </c>
       <c r="M2">
-        <v>0.4547296176850679</v>
+        <v>0.3342352116041098</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.044168189723166</v>
+        <v>4.440290433129405</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.253285944113259</v>
+        <v>1.273274568625254</v>
       </c>
       <c r="C3">
-        <v>0.3894780480061399</v>
+        <v>0.222118127250809</v>
       </c>
       <c r="D3">
-        <v>0.05915306638763695</v>
+        <v>0.1495340626660635</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7822403560702966</v>
+        <v>1.759505153369659</v>
       </c>
       <c r="G3">
-        <v>0.0008193690919842762</v>
+        <v>0.002494296656742231</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09199547684658338</v>
+        <v>0.2202560094990664</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1848459931600885</v>
+        <v>0.3243010243868767</v>
       </c>
       <c r="M3">
-        <v>0.3979115690370634</v>
+        <v>0.3183151109437574</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.018724774818935</v>
+        <v>4.475366979812634</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.047160488631164</v>
+        <v>1.212401018146977</v>
       </c>
       <c r="C4">
-        <v>0.3671594983640603</v>
+        <v>0.2145167690970311</v>
       </c>
       <c r="D4">
-        <v>0.05761276568553342</v>
+        <v>0.1494715267702489</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7766263700732949</v>
+        <v>1.767931329572093</v>
       </c>
       <c r="G4">
-        <v>0.0008222912848898644</v>
+        <v>0.002496269968750262</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09416187938005471</v>
+        <v>0.2214464610683331</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1744225120558909</v>
+        <v>0.3222924456805032</v>
       </c>
       <c r="M4">
-        <v>0.3631825426868787</v>
+        <v>0.3086180383821429</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.008406753048803</v>
+        <v>4.499649157197808</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.963280267446862</v>
+        <v>1.187644517254512</v>
       </c>
       <c r="C5">
-        <v>0.3580662540361743</v>
+        <v>0.2114112111658812</v>
       </c>
       <c r="D5">
-        <v>0.05699541458532309</v>
+        <v>0.1494549141167205</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.774779978664462</v>
+        <v>1.771616364344361</v>
       </c>
       <c r="G5">
-        <v>0.0008235059414371984</v>
+        <v>0.002497099496608449</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09506814767289384</v>
+        <v>0.2219474673145161</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1702090111005816</v>
+        <v>0.3214994902199706</v>
       </c>
       <c r="M5">
-        <v>0.3490636499554824</v>
+        <v>0.3046862777406858</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.005473418987378</v>
+        <v>4.510234191781194</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.949358164484408</v>
+        <v>1.183536783455565</v>
       </c>
       <c r="C6">
-        <v>0.3565563511617427</v>
+        <v>0.2108950621402954</v>
       </c>
       <c r="D6">
-        <v>0.05689351708677037</v>
+        <v>0.1494526923988175</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7744994608048543</v>
+        <v>1.772243438218432</v>
       </c>
       <c r="G6">
-        <v>0.0008237090871235495</v>
+        <v>0.00249723877459294</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09522004156437625</v>
+        <v>0.2220316193118013</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1695113563073249</v>
+        <v>0.3213693675025979</v>
       </c>
       <c r="M6">
-        <v>0.3467210680091242</v>
+        <v>0.304034620523602</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.005061361615219</v>
+        <v>4.512033481905405</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04602881817209</v>
+        <v>1.212066938917815</v>
       </c>
       <c r="C7">
-        <v>0.3670368603621341</v>
+        <v>0.2144749183346732</v>
       </c>
       <c r="D7">
-        <v>0.05760439852966925</v>
+        <v>0.1494712667619815</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7765997084339915</v>
+        <v>1.767980009796098</v>
       </c>
       <c r="G7">
-        <v>0.0008223075690594133</v>
+        <v>0.002496281053172756</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09417400703794776</v>
+        <v>0.2214531534531403</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1743655521606016</v>
+        <v>0.3222816479755934</v>
       </c>
       <c r="M7">
-        <v>0.362992002679988</v>
+        <v>0.3085649324389053</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.008362125657726</v>
+        <v>4.499789118055645</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473738579078827</v>
+        <v>1.338398694043633</v>
       </c>
       <c r="C8">
-        <v>0.4133082348183166</v>
+        <v>0.2302017441235478</v>
       </c>
       <c r="D8">
-        <v>0.06083312731593793</v>
+        <v>0.1496310224307393</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7897973594657515</v>
+        <v>1.75137274988225</v>
       </c>
       <c r="G8">
-        <v>0.0008163310351506255</v>
+        <v>0.002492277512373658</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08976455399149419</v>
+        <v>0.2190399245280119</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1960924169427258</v>
+        <v>0.3265314017495058</v>
       </c>
       <c r="M8">
-        <v>0.4351022393250972</v>
+        <v>0.3287299466218698</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.034255749389814</v>
+        <v>4.451814844256717</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.318960724450108</v>
+        <v>1.587606049736621</v>
       </c>
       <c r="C9">
-        <v>0.5043432874797418</v>
+        <v>0.260777055885427</v>
       </c>
       <c r="D9">
-        <v>0.06752227386724741</v>
+        <v>0.1502217721476242</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8312414511945292</v>
+        <v>1.726739608662385</v>
       </c>
       <c r="G9">
-        <v>0.0008053266401019665</v>
+        <v>0.002485221773770644</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08187698986161518</v>
+        <v>0.2148069951574767</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2399737954901866</v>
+        <v>0.3356636365308532</v>
       </c>
       <c r="M9">
-        <v>0.5780631557659746</v>
+        <v>0.3688818483715295</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.130112982057028</v>
+        <v>4.379538598096104</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.946493262743957</v>
+        <v>1.771539926112723</v>
       </c>
       <c r="C10">
-        <v>0.5716389316854702</v>
+        <v>0.2830711338289404</v>
       </c>
       <c r="D10">
-        <v>0.07268401326199836</v>
+        <v>0.1508232430850782</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8726426087458208</v>
+        <v>1.713483357448993</v>
       </c>
       <c r="G10">
-        <v>0.0007976451209544726</v>
+        <v>0.002480517821750525</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07656202497765641</v>
+        <v>0.2119998781291788</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2731726615822367</v>
+        <v>0.342855040756362</v>
       </c>
       <c r="M10">
-        <v>0.6845063889459198</v>
+        <v>0.3987421647247302</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.232464113999924</v>
+        <v>4.339759101514147</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.234027093558097</v>
+        <v>1.855388475378504</v>
       </c>
       <c r="C11">
-        <v>0.6023998187335735</v>
+        <v>0.2931749188502693</v>
       </c>
       <c r="D11">
-        <v>0.07509298354580096</v>
+        <v>0.1511328785201513</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.894206510569731</v>
+        <v>1.708505290158797</v>
       </c>
       <c r="G11">
-        <v>0.0007942304110306709</v>
+        <v>0.002478481040890523</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07425243895232647</v>
+        <v>0.2107882549163982</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2885279268568297</v>
+        <v>0.3462302986952324</v>
       </c>
       <c r="M11">
-        <v>0.7333487934048648</v>
+        <v>0.4124028010190486</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.287026080810307</v>
+        <v>4.324562051294009</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.343261914138793</v>
+        <v>1.887163786622295</v>
       </c>
       <c r="C12">
-        <v>0.6140744789552457</v>
+        <v>0.2969953348789716</v>
       </c>
       <c r="D12">
-        <v>0.07601458188161558</v>
+        <v>0.1512552779960714</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9027965641246993</v>
+        <v>1.706771624292429</v>
       </c>
       <c r="G12">
-        <v>0.0007929481165406519</v>
+        <v>0.00247772450828481</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0733938012634745</v>
+        <v>0.210338817236071</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2943828518367866</v>
+        <v>0.3475232561057737</v>
       </c>
       <c r="M12">
-        <v>0.7519146619074419</v>
+        <v>0.417586576630022</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.308934658714776</v>
+        <v>4.319224710791957</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.319719662612783</v>
+        <v>1.880319377335127</v>
       </c>
       <c r="C13">
-        <v>0.6115588844110391</v>
+        <v>0.2961727954588866</v>
       </c>
       <c r="D13">
-        <v>0.0758156718731442</v>
+        <v>0.151228688674145</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9009271421401479</v>
+        <v>1.707138264132652</v>
       </c>
       <c r="G13">
-        <v>0.0007932238133153556</v>
+        <v>0.00247788678597937</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07357800823341343</v>
+        <v>0.2104351949085501</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2931200356539563</v>
+        <v>0.347244137245454</v>
       </c>
       <c r="M13">
-        <v>0.7479128782663977</v>
+        <v>0.4164696825065661</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.3041591689028</v>
+        <v>4.320355626676957</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.24300652265697</v>
+        <v>1.858002184002657</v>
       </c>
       <c r="C14">
-        <v>0.6033597455646031</v>
+        <v>0.293489341612343</v>
       </c>
       <c r="D14">
-        <v>0.07516861240003436</v>
+        <v>0.1511428454272306</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8949045262486379</v>
+        <v>1.708359625138016</v>
       </c>
       <c r="G14">
-        <v>0.000794124703832784</v>
+        <v>0.002478418505344557</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07418147626159488</v>
+        <v>0.2107510915735666</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2890087858687735</v>
+        <v>0.346336374701238</v>
       </c>
       <c r="M14">
-        <v>0.7348747504852682</v>
+        <v>0.4128290587668886</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.288802938122075</v>
+        <v>4.324114575263735</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.196065057141595</v>
+        <v>1.844335294842949</v>
       </c>
       <c r="C15">
-        <v>0.5983410994817291</v>
+        <v>0.2918449040770383</v>
       </c>
       <c r="D15">
-        <v>0.07477350978494712</v>
+        <v>0.1510909333137107</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8912717345257448</v>
+        <v>1.709127466510566</v>
       </c>
       <c r="G15">
-        <v>0.0007946779086760177</v>
+        <v>0.002478746117765584</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07455320741901872</v>
+        <v>0.2109458080929816</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2864958838300282</v>
+        <v>0.345782270645401</v>
       </c>
       <c r="M15">
-        <v>0.726897981600203</v>
+        <v>0.410600468174465</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.279562212221776</v>
+        <v>4.326471422305673</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.927748416147153</v>
+        <v>1.766063629544362</v>
       </c>
       <c r="C16">
-        <v>0.5696320205018424</v>
+        <v>0.2824100463463708</v>
       </c>
       <c r="D16">
-        <v>0.07252785815426677</v>
+        <v>0.1508037297490858</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8712909485859939</v>
+        <v>1.71382986919447</v>
       </c>
       <c r="G16">
-        <v>0.0007978698267933828</v>
+        <v>0.002480652998202043</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07671517224013513</v>
+        <v>0.2120803738765353</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2721745705804608</v>
+        <v>0.3426365397779989</v>
       </c>
       <c r="M16">
-        <v>0.6813237104035821</v>
+        <v>0.3978509353991768</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.229067456293052</v>
+        <v>4.3408106481684</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.763711681130815</v>
+        <v>1.718090432796259</v>
       </c>
       <c r="C17">
-        <v>0.5520611501966641</v>
+        <v>0.2766122031780185</v>
       </c>
       <c r="D17">
-        <v>0.07116623973713132</v>
+        <v>0.1506367426556423</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8597544471413983</v>
+        <v>1.716984227159998</v>
       </c>
       <c r="G17">
-        <v>0.0007998479028021984</v>
+        <v>0.002481849156705245</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07806945407286303</v>
+        <v>0.2127931167125254</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2634563344170573</v>
+        <v>0.3407332539312193</v>
       </c>
       <c r="M17">
-        <v>0.6534798784853848</v>
+        <v>0.3900490335728009</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.200206344436566</v>
+        <v>4.350350191355943</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.66955301643128</v>
+        <v>1.690514191861837</v>
       </c>
       <c r="C18">
-        <v>0.541968437975612</v>
+        <v>0.273273882387798</v>
       </c>
       <c r="D18">
-        <v>0.07038876209865208</v>
+        <v>0.1505440887307401</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8533739117145416</v>
+        <v>1.718897568603751</v>
       </c>
       <c r="G18">
-        <v>0.0008009931798621116</v>
+        <v>0.002482546861223401</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07885856213942333</v>
+        <v>0.2132092195739208</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2584653951272742</v>
+        <v>0.3396483160322958</v>
       </c>
       <c r="M18">
-        <v>0.6375038222246943</v>
+        <v>0.385568853330561</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.184353168936212</v>
+        <v>4.356109901133465</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.637703702761883</v>
+        <v>1.681180264271177</v>
       </c>
       <c r="C19">
-        <v>0.5385534094218087</v>
+        <v>0.2721429804726085</v>
       </c>
       <c r="D19">
-        <v>0.07012648055901138</v>
+        <v>0.1505133013960247</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8512564355700647</v>
+        <v>1.719562399826046</v>
       </c>
       <c r="G19">
-        <v>0.0008013822658029238</v>
+        <v>0.002482784760796944</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07912747428195033</v>
+        <v>0.2133511620638613</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2567794828851078</v>
+        <v>0.3392826581961401</v>
       </c>
       <c r="M19">
-        <v>0.6321010133389322</v>
+        <v>0.3840531982509745</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.17911103133855</v>
+        <v>4.358106878072249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.781153528149218</v>
+        <v>1.723195547809837</v>
       </c>
       <c r="C20">
-        <v>0.5539301587102727</v>
+        <v>0.277229762968858</v>
       </c>
       <c r="D20">
-        <v>0.0713105931877962</v>
+        <v>0.1506541678311706</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8609559189636542</v>
+        <v>1.716638189521987</v>
       </c>
       <c r="G20">
-        <v>0.000799636557581529</v>
+        <v>0.002481720819573053</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07792423409753102</v>
+        <v>0.2127166074486944</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2643819403079277</v>
+        <v>0.3409348504053327</v>
       </c>
       <c r="M20">
-        <v>0.6564397993010473</v>
+        <v>0.3908788092893545</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.203200675325007</v>
+        <v>4.349306450795467</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.265529018023074</v>
+        <v>1.864556654833791</v>
       </c>
       <c r="C21">
-        <v>0.6057672794002826</v>
+        <v>0.2942776926067552</v>
       </c>
       <c r="D21">
-        <v>0.07535840985848097</v>
+        <v>0.1511679202360199</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8966617353079158</v>
+        <v>1.707996771468189</v>
       </c>
       <c r="G21">
-        <v>0.0007938598034197996</v>
+        <v>0.002478261926568393</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07400378687176001</v>
+        <v>0.210658050708874</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2902152358557402</v>
+        <v>0.3466026052412019</v>
       </c>
       <c r="M21">
-        <v>0.738702374401754</v>
+        <v>0.413898107675351</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.293278781209523</v>
+        <v>4.322999146610329</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.584176957576744</v>
+        <v>1.957081616352582</v>
       </c>
       <c r="C22">
-        <v>0.6398010398964402</v>
+        <v>0.3053863630255194</v>
       </c>
       <c r="D22">
-        <v>0.07805885356416553</v>
+        <v>0.1515336741803353</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.922487048226202</v>
+        <v>1.7032317463064</v>
       </c>
       <c r="G22">
-        <v>0.0007901468593740557</v>
+        <v>0.002476087293089967</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07153473338499694</v>
+        <v>0.2093673167541414</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3073352281611648</v>
+        <v>0.3503931437022345</v>
       </c>
       <c r="M22">
-        <v>0.7928806816052045</v>
+        <v>0.4290053053451217</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.359469769809664</v>
+        <v>4.308239313848503</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.413898833633766</v>
+        <v>1.907687277219964</v>
       </c>
       <c r="C23">
-        <v>0.6216206348088917</v>
+        <v>0.2994605598666737</v>
       </c>
       <c r="D23">
-        <v>0.07661232847609512</v>
+        <v>0.1513357313996977</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9084646857763943</v>
+        <v>1.705694133574042</v>
       </c>
       <c r="G23">
-        <v>0.0007921230436903338</v>
+        <v>0.002477240094025782</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07284385046408204</v>
+        <v>0.2100512114016713</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2981749789002066</v>
+        <v>0.3483621997638835</v>
       </c>
       <c r="M23">
-        <v>0.7639232804494753</v>
+        <v>0.4209366618931298</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.323438723376967</v>
+        <v>4.315894049413828</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.773267611474012</v>
+        <v>1.72088751214153</v>
       </c>
       <c r="C24">
-        <v>0.5530851522487694</v>
+        <v>0.2769505799444687</v>
       </c>
       <c r="D24">
-        <v>0.07124531442206461</v>
+        <v>0.1506462794748771</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8604119511397812</v>
+        <v>1.716794322087736</v>
       </c>
       <c r="G24">
-        <v>0.0007997320816033541</v>
+        <v>0.002481778809622058</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07798985533063707</v>
+        <v>0.2127511775438027</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2639634078556412</v>
+        <v>0.340843679705003</v>
       </c>
       <c r="M24">
-        <v>0.655101520987742</v>
+        <v>0.390503651353832</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.201844642274153</v>
+        <v>4.349777468394649</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.089355615151931</v>
+        <v>1.5200371660992</v>
       </c>
       <c r="C25">
-        <v>0.4796614002785873</v>
+        <v>0.2525348341553411</v>
       </c>
       <c r="D25">
-        <v>0.06567151194732901</v>
+        <v>0.1500324307933809</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8182184885830566</v>
+        <v>1.732553639827103</v>
       </c>
       <c r="G25">
-        <v>0.0008082302819984299</v>
+        <v>0.002487045912782869</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08392779881322632</v>
+        <v>0.215898820071506</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2279482303888898</v>
+        <v>0.3331081437341226</v>
       </c>
       <c r="M25">
-        <v>0.5391764803701093</v>
+        <v>0.3579556248875164</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.098915113115481</v>
+        <v>4.39675403231638</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_91/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.372729943998593</v>
+        <v>2.589975910389683</v>
       </c>
       <c r="C2">
-        <v>0.2344453039142707</v>
+        <v>0.4258576543948607</v>
       </c>
       <c r="D2">
-        <v>0.1496931498150786</v>
+        <v>0.06173114348165853</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.747409726797848</v>
+        <v>0.7943756432637983</v>
       </c>
       <c r="G2">
-        <v>0.002491246750073706</v>
+        <v>0.0008147612693863334</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2184199188407483</v>
+        <v>0.08862060981019937</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3277370905224615</v>
+        <v>0.2020593016082231</v>
       </c>
       <c r="M2">
-        <v>0.3342352116041098</v>
+        <v>0.4547296176850608</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.440290433129405</v>
+        <v>2.044168189723081</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.273274568625254</v>
+        <v>2.253285944113145</v>
       </c>
       <c r="C3">
-        <v>0.222118127250809</v>
+        <v>0.3894780480059126</v>
       </c>
       <c r="D3">
-        <v>0.1495340626660635</v>
+        <v>0.05915306638746642</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.759505153369659</v>
+        <v>0.7822403560702966</v>
       </c>
       <c r="G3">
-        <v>0.002494296656742231</v>
+        <v>0.0008193690919619052</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2202560094990664</v>
+        <v>0.09199547684657805</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3243010243868767</v>
+        <v>0.1848459931600885</v>
       </c>
       <c r="M3">
-        <v>0.3183151109437574</v>
+        <v>0.3979115690370705</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.475366979812634</v>
+        <v>2.01872477481885</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.212401018146977</v>
+        <v>2.047160488631164</v>
       </c>
       <c r="C4">
-        <v>0.2145167690970311</v>
+        <v>0.3671594983643018</v>
       </c>
       <c r="D4">
-        <v>0.1494715267702489</v>
+        <v>0.05761276568554052</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.767931329572093</v>
+        <v>0.776626370073302</v>
       </c>
       <c r="G4">
-        <v>0.002496269968750262</v>
+        <v>0.0008222912848897534</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2214464610683331</v>
+        <v>0.09416187938016662</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3222924456805032</v>
+        <v>0.1744225120560188</v>
       </c>
       <c r="M4">
-        <v>0.3086180383821429</v>
+        <v>0.3631825426868787</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.499649157197808</v>
+        <v>2.00840675304886</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.187644517254512</v>
+        <v>1.963280267446748</v>
       </c>
       <c r="C5">
-        <v>0.2114112111658812</v>
+        <v>0.3580662540359469</v>
       </c>
       <c r="D5">
-        <v>0.1494549141167205</v>
+        <v>0.05699541458531954</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.771616364344361</v>
+        <v>0.774779978664462</v>
       </c>
       <c r="G5">
-        <v>0.002497099496608449</v>
+        <v>0.0008235059414360305</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2219474673145161</v>
+        <v>0.09506814767293204</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3214994902199706</v>
+        <v>0.1702090111005532</v>
       </c>
       <c r="M5">
-        <v>0.3046862777406858</v>
+        <v>0.3490636499554824</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.510234191781194</v>
+        <v>2.005473418987464</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.183536783455565</v>
+        <v>1.949358164484408</v>
       </c>
       <c r="C6">
-        <v>0.2108950621402954</v>
+        <v>0.3565563511619558</v>
       </c>
       <c r="D6">
-        <v>0.1494526923988175</v>
+        <v>0.05689351708689117</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.772243438218432</v>
+        <v>0.7744994608048543</v>
       </c>
       <c r="G6">
-        <v>0.00249723877459294</v>
+        <v>0.0008237090871240512</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2220316193118013</v>
+        <v>0.09522004156438513</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3213693675025979</v>
+        <v>0.1695113563074102</v>
       </c>
       <c r="M6">
-        <v>0.304034620523602</v>
+        <v>0.3467210680091171</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.512033481905405</v>
+        <v>2.005061361615162</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.212066938917815</v>
+        <v>2.046028818172147</v>
       </c>
       <c r="C7">
-        <v>0.2144749183346732</v>
+        <v>0.367036860362461</v>
       </c>
       <c r="D7">
-        <v>0.1494712667619815</v>
+        <v>0.05760439852958399</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.767980009796098</v>
+        <v>0.7765997084339844</v>
       </c>
       <c r="G7">
-        <v>0.002496281053172756</v>
+        <v>0.0008223075689997936</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2214531534531403</v>
+        <v>0.09417400703794332</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3222816479755934</v>
+        <v>0.1743655521606371</v>
       </c>
       <c r="M7">
-        <v>0.3085649324389053</v>
+        <v>0.3629920026799809</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.499789118055645</v>
+        <v>2.008362125657584</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.338398694043633</v>
+        <v>2.473738579078713</v>
       </c>
       <c r="C8">
-        <v>0.2302017441235478</v>
+        <v>0.4133082348181176</v>
       </c>
       <c r="D8">
-        <v>0.1496310224307393</v>
+        <v>0.06083312731573187</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.75137274988225</v>
+        <v>0.7897973594657444</v>
       </c>
       <c r="G8">
-        <v>0.002492277512373658</v>
+        <v>0.0008163310350689535</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2190399245280119</v>
+        <v>0.08976455399151018</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3265314017495058</v>
+        <v>0.1960924169426548</v>
       </c>
       <c r="M8">
-        <v>0.3287299466218698</v>
+        <v>0.435102239325083</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.451814844256717</v>
+        <v>2.034255749389729</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.587606049736621</v>
+        <v>3.318960724450108</v>
       </c>
       <c r="C9">
-        <v>0.260777055885427</v>
+        <v>0.5043432874797418</v>
       </c>
       <c r="D9">
-        <v>0.1502217721476242</v>
+        <v>0.06752227386701293</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.726739608662385</v>
+        <v>0.8312414511945363</v>
       </c>
       <c r="G9">
-        <v>0.002485221773770644</v>
+        <v>0.0008053266401308629</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2148069951574767</v>
+        <v>0.08187698986182301</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3356636365308532</v>
+        <v>0.2399737954902008</v>
       </c>
       <c r="M9">
-        <v>0.3688818483715295</v>
+        <v>0.5780631557659746</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.379538598096104</v>
+        <v>2.130112982057028</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.771539926112723</v>
+        <v>3.94649326274407</v>
       </c>
       <c r="C10">
-        <v>0.2830711338289404</v>
+        <v>0.5716389316854418</v>
       </c>
       <c r="D10">
-        <v>0.1508232430850782</v>
+        <v>0.0726840132619273</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.713483357448993</v>
+        <v>0.8726426087458208</v>
       </c>
       <c r="G10">
-        <v>0.002480517821750525</v>
+        <v>0.0007976451210110528</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2119998781291788</v>
+        <v>0.07656202497760489</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.342855040756362</v>
+        <v>0.2731726615822083</v>
       </c>
       <c r="M10">
-        <v>0.3987421647247302</v>
+        <v>0.6845063889459198</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.339759101514147</v>
+        <v>2.232464113999924</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.855388475378504</v>
+        <v>4.234027093558268</v>
       </c>
       <c r="C11">
-        <v>0.2931749188502693</v>
+        <v>0.6023998187338861</v>
       </c>
       <c r="D11">
-        <v>0.1511328785201513</v>
+        <v>0.07509298354597149</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.708505290158797</v>
+        <v>0.8942065105697594</v>
       </c>
       <c r="G11">
-        <v>0.002478481040890523</v>
+        <v>0.0007942304110588489</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2107882549163982</v>
+        <v>0.07425243895233002</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3462302986952324</v>
+        <v>0.2885279268567871</v>
       </c>
       <c r="M11">
-        <v>0.4124028010190486</v>
+        <v>0.7333487934048577</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.324562051294009</v>
+        <v>2.287026080810364</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.887163786622295</v>
+        <v>4.343261914138736</v>
       </c>
       <c r="C12">
-        <v>0.2969953348789716</v>
+        <v>0.6140744789551889</v>
       </c>
       <c r="D12">
-        <v>0.1512552779960714</v>
+        <v>0.07601458188160848</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.706771624292429</v>
+        <v>0.9027965641246993</v>
       </c>
       <c r="G12">
-        <v>0.00247772450828481</v>
+        <v>0.0007929481165409647</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.210338817236071</v>
+        <v>0.07339380126351003</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3475232561057737</v>
+        <v>0.2943828518367013</v>
       </c>
       <c r="M12">
-        <v>0.417586576630022</v>
+        <v>0.7519146619074348</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.319224710791957</v>
+        <v>2.308934658714861</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.880319377335127</v>
+        <v>4.319719662612897</v>
       </c>
       <c r="C13">
-        <v>0.2961727954588866</v>
+        <v>0.6115588844113233</v>
       </c>
       <c r="D13">
-        <v>0.151228688674145</v>
+        <v>0.07581567187308735</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.707138264132652</v>
+        <v>0.9009271421401337</v>
       </c>
       <c r="G13">
-        <v>0.00247788678597937</v>
+        <v>0.0007932238132581371</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2104351949085501</v>
+        <v>0.07357800823336547</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.347244137245454</v>
+        <v>0.2931200356539279</v>
       </c>
       <c r="M13">
-        <v>0.4164696825065661</v>
+        <v>0.7479128782664048</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.320355626676957</v>
+        <v>2.3041591689028</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.858002184002657</v>
+        <v>4.243006522657026</v>
       </c>
       <c r="C14">
-        <v>0.293489341612343</v>
+        <v>0.6033597455646884</v>
       </c>
       <c r="D14">
-        <v>0.1511428454272306</v>
+        <v>0.07516861240002015</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.708359625138016</v>
+        <v>0.8949045262486379</v>
       </c>
       <c r="G14">
-        <v>0.002478418505344557</v>
+        <v>0.0007941247038041123</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2107510915735666</v>
+        <v>0.07418147626162153</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.346336374701238</v>
+        <v>0.2890087858687167</v>
       </c>
       <c r="M14">
-        <v>0.4128290587668886</v>
+        <v>0.7348747504852753</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.324114575263735</v>
+        <v>2.288802938122046</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.844335294842949</v>
+        <v>4.196065057141595</v>
       </c>
       <c r="C15">
-        <v>0.2918449040770383</v>
+        <v>0.5983410994820701</v>
       </c>
       <c r="D15">
-        <v>0.1510909333137107</v>
+        <v>0.0747735097850537</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.709127466510566</v>
+        <v>0.8912717345257448</v>
       </c>
       <c r="G15">
-        <v>0.002478746117765584</v>
+        <v>0.0007946779086751519</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2109458080929816</v>
+        <v>0.07455320741904181</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.345782270645401</v>
+        <v>0.286495883830014</v>
       </c>
       <c r="M15">
-        <v>0.410600468174465</v>
+        <v>0.7268979816002101</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.326471422305673</v>
+        <v>2.279562212221776</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.766063629544362</v>
+        <v>3.927748416147153</v>
       </c>
       <c r="C16">
-        <v>0.2824100463463708</v>
+        <v>0.5696320205015866</v>
       </c>
       <c r="D16">
-        <v>0.1508037297490858</v>
+        <v>0.07252785815438045</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.71382986919447</v>
+        <v>0.8712909485860081</v>
       </c>
       <c r="G16">
-        <v>0.002480652998202043</v>
+        <v>0.0007978698268222668</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2120803738765353</v>
+        <v>0.07671517224007118</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3426365397779989</v>
+        <v>0.2721745705805176</v>
       </c>
       <c r="M16">
-        <v>0.3978509353991768</v>
+        <v>0.6813237104035963</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.3408106481684</v>
+        <v>2.229067456293052</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.718090432796259</v>
+        <v>3.763711681130928</v>
       </c>
       <c r="C17">
-        <v>0.2766122031780185</v>
+        <v>0.5520611501969768</v>
       </c>
       <c r="D17">
-        <v>0.1506367426556423</v>
+        <v>0.07116623973730185</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.716984227159998</v>
+        <v>0.8597544471414125</v>
       </c>
       <c r="G17">
-        <v>0.002481849156705245</v>
+        <v>0.0007998479028001531</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2127931167125254</v>
+        <v>0.07806945407295096</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3407332539312193</v>
+        <v>0.2634563344169436</v>
       </c>
       <c r="M17">
-        <v>0.3900490335728009</v>
+        <v>0.6534798784853777</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.350350191355943</v>
+        <v>2.200206344436708</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.690514191861837</v>
+        <v>3.669553016431337</v>
       </c>
       <c r="C18">
-        <v>0.273273882387798</v>
+        <v>0.5419684379755836</v>
       </c>
       <c r="D18">
-        <v>0.1505440887307401</v>
+        <v>0.07038876209853839</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.718897568603751</v>
+        <v>0.8533739117145274</v>
       </c>
       <c r="G18">
-        <v>0.002482546861223401</v>
+        <v>0.0008009931799188587</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2132092195739208</v>
+        <v>0.07885856213951659</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3396483160322958</v>
+        <v>0.2584653951273026</v>
       </c>
       <c r="M18">
-        <v>0.385568853330561</v>
+        <v>0.6375038222247014</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.356109901133465</v>
+        <v>2.184353168936184</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.681180264271177</v>
+        <v>3.637703702761883</v>
       </c>
       <c r="C19">
-        <v>0.2721429804726085</v>
+        <v>0.5385534094222351</v>
       </c>
       <c r="D19">
-        <v>0.1505133013960247</v>
+        <v>0.07012648055886217</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.719562399826046</v>
+        <v>0.8512564355700647</v>
       </c>
       <c r="G19">
-        <v>0.002482784760796944</v>
+        <v>0.0008013822657450491</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2133511620638613</v>
+        <v>0.07912747428196099</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3392826581961401</v>
+        <v>0.2567794828851504</v>
       </c>
       <c r="M19">
-        <v>0.3840531982509745</v>
+        <v>0.6321010133389464</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.358106878072249</v>
+        <v>2.17911103133855</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.723195547809837</v>
+        <v>3.781153528149105</v>
       </c>
       <c r="C20">
-        <v>0.277229762968858</v>
+        <v>0.553930158710159</v>
       </c>
       <c r="D20">
-        <v>0.1506541678311706</v>
+        <v>0.07131059318767541</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.716638189521987</v>
+        <v>0.8609559189636542</v>
       </c>
       <c r="G20">
-        <v>0.002481720819573053</v>
+        <v>0.0007996365575818065</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2127166074486944</v>
+        <v>0.07792423409753901</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3409348504053327</v>
+        <v>0.2643819403078425</v>
       </c>
       <c r="M20">
-        <v>0.3908788092893545</v>
+        <v>0.6564397993010402</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.349306450795467</v>
+        <v>2.203200675325093</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.864556654833791</v>
+        <v>4.26552901802296</v>
       </c>
       <c r="C21">
-        <v>0.2942776926067552</v>
+        <v>0.6057672794002826</v>
       </c>
       <c r="D21">
-        <v>0.1511679202360199</v>
+        <v>0.07535840985831754</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.707996771468189</v>
+        <v>0.8966617353078874</v>
       </c>
       <c r="G21">
-        <v>0.002478261926568393</v>
+        <v>0.0007938598034798339</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.210658050708874</v>
+        <v>0.07400378687188436</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3466026052412019</v>
+        <v>0.2902152358557828</v>
       </c>
       <c r="M21">
-        <v>0.413898107675351</v>
+        <v>0.7387023744017469</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.322999146610329</v>
+        <v>2.293278781209438</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.957081616352582</v>
+        <v>4.584176957576858</v>
       </c>
       <c r="C22">
-        <v>0.3053863630255194</v>
+        <v>0.6398010398966392</v>
       </c>
       <c r="D22">
-        <v>0.1515336741803353</v>
+        <v>0.07805885356422948</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.7032317463064</v>
+        <v>0.9224870482261878</v>
       </c>
       <c r="G22">
-        <v>0.002476087293089967</v>
+        <v>0.0007901468593743134</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2093673167541414</v>
+        <v>0.07153473338507332</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3503931437022345</v>
+        <v>0.3073352281611648</v>
       </c>
       <c r="M22">
-        <v>0.4290053053451217</v>
+        <v>0.7928806816052116</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.308239313848503</v>
+        <v>2.359469769809692</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.907687277219964</v>
+        <v>4.413898833633482</v>
       </c>
       <c r="C23">
-        <v>0.2994605598666737</v>
+        <v>0.621620634808778</v>
       </c>
       <c r="D23">
-        <v>0.1513357313996977</v>
+        <v>0.07661232847604538</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.705694133574042</v>
+        <v>0.9084646857763943</v>
       </c>
       <c r="G23">
-        <v>0.002477240094025782</v>
+        <v>0.0007921230437197092</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2100512114016713</v>
+        <v>0.07284385046403585</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3483621997638835</v>
+        <v>0.2981749789002777</v>
       </c>
       <c r="M23">
-        <v>0.4209366618931298</v>
+        <v>0.7639232804494753</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.315894049413828</v>
+        <v>2.323438723376938</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.72088751214153</v>
+        <v>3.773267611474068</v>
       </c>
       <c r="C24">
-        <v>0.2769505799444687</v>
+        <v>0.5530851522488547</v>
       </c>
       <c r="D24">
-        <v>0.1506462794748771</v>
+        <v>0.07124531442214277</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.716794322087736</v>
+        <v>0.8604119511397812</v>
       </c>
       <c r="G24">
-        <v>0.002481778809622058</v>
+        <v>0.0007997320816039085</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2127511775438027</v>
+        <v>0.07798985533072411</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.340843679705003</v>
+        <v>0.2639634078556554</v>
       </c>
       <c r="M24">
-        <v>0.390503651353832</v>
+        <v>0.6551015209877207</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.349777468394649</v>
+        <v>2.201844642274182</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.5200371660992</v>
+        <v>3.089355615151817</v>
       </c>
       <c r="C25">
-        <v>0.2525348341553411</v>
+        <v>0.4796614002785589</v>
       </c>
       <c r="D25">
-        <v>0.1500324307933809</v>
+        <v>0.0656715119474427</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.732553639827103</v>
+        <v>0.8182184885830424</v>
       </c>
       <c r="G25">
-        <v>0.002487045912782869</v>
+        <v>0.0008082302819694288</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.215898820071506</v>
+        <v>0.08392779881326451</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3331081437341226</v>
+        <v>0.2279482303888614</v>
       </c>
       <c r="M25">
-        <v>0.3579556248875164</v>
+        <v>0.5391764803700951</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.39675403231638</v>
+        <v>2.09891511311551</v>
       </c>
     </row>
   </sheetData>
